--- a/SPPSApi/Doc/Template/FS1206.xlsx
+++ b/SPPSApi/Doc/Template/FS1206.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
   </si>
   <si>
     <t>收容数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,20 +403,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -438,9 +434,6 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS1206.xlsx
+++ b/SPPSApi/Doc/Template/FS1206.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,10 @@
   </si>
   <si>
     <t>收容数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -44,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -97,10 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -403,20 +412,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -432,8 +442,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
